--- a/BrokenLinkValidator/Datatables/SiteMapUrl_CB6.xlsx
+++ b/BrokenLinkValidator/Datatables/SiteMapUrl_CB6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WC Bradley Workspace\BrokenLinkValidator\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Broken Links Workspace\BrokenLinkValidator\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1116">
   <si>
     <t>CB New Site URLs</t>
   </si>
@@ -2128,174 +2128,6 @@
     <t>https://www.charbroil.com/hardware-pack-g536b002w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Instruction-Manual-29001308</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTIONS-DELUX-OUTDOOR-FIREPLACE-03-42803963</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-ASSEMBLY-42804297</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Big-Easy-Recipe-Usage-Guide-English-42804470</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-SPANISH-42804554</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-SPANISH-42804593</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-SPANISH-42804687</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-SPANISH-42804816</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-FRENCH-42804826</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Manual-With-Care-Use-15302034-EngSpa-42804880</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-FRENCH-42804927</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/BIG-EASY-RECIPE-GUIDE-42804989</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Manual-With-Care-Use-465131014-EngSpaFre-42805092</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Asembly-Manual-English-Spanish-French-42805093</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/INSTRUCTION-MANUAL-SPANISH-42805122</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Manual-With-Care-Use-15202023-EngSpa-42805243</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/MANUAL-7001797</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/MANUALASSY-WCU463268806ENGWPG06-80005728</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/MANUAL-80005883</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/MANUAL-80005884</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/MANUAL-80008338</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Instruction-Manual-Spanish-80009171</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Use-and-Care-Manual-80009476</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Use-and-Care-Manual-80011766</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/ManualEnglish-80013234</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/ManualSpanish-80013235</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Instruction-Manual-English-80014680</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Manual-With-Care-Use-14301870-English-C404020801W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/4-piece-steak-thermometer-set</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/basting-brush</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/spatula-1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/roast-and-rib-rack</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/kenmore-natural-gas-conversion-kit-2766487</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/commercial-series-natural-gas-conversion-kit-4984619</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/natural-gas-conversion-kit-5195943</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/universal-fit-control-knob-1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/tube-burner-2-pack</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/2-inch-temperature-gauge</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/portable-patio-bistro-reg-electric-grill-1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/240-patio-bistro-reg-electric-grill</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/vertical-propane-gas-smoker-595</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/deluxe-bbq-smoker-grill-1280</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/gear-trax-combo-kit-basket-and-hook-bars</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/4-piece-chrome-skewer-set</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/gear-trax-trade-tool-hook-bars</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cool-clean-xl-brush</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cool-clean-xl-replacement-head</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/21-pro-sear-reg-porcelain-grate</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/small-expandable-porcelain-grate</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/14-75-in-expandable-porcelain-grate</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Door-Handle-G6140088W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hickory-wood-chips-2-lb-bag</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/digital-electric-smoker</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/charcoal-chimney</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/lid-123016020101</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/grill2go-carrying-case</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/portable-grill2go-reg-x200-gas-grill</t>
   </si>
   <si>
@@ -2314,12 +2146,6 @@
     <t>https://www.charbroil.com/electronic-ignition-module-5-spark-1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Firebox-G651D700W1B</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/tru-infrared-patio-bistro-180-electric-tabletop-grill-black</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/max-rib-rack</t>
   </si>
   <si>
@@ -2449,9 +2275,6 @@
     <t>https://www.charbroil.com/Handle-Barrel-Spring-1220159503112</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Hinge-For-Cleanout-Door-1230160202104</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Temperature-Gauge-123016480102A</t>
   </si>
   <si>
@@ -2578,9 +2401,6 @@
     <t>https://www.charbroil.com/Cool-Touch-Handle-1699014</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Temperature-Gauge-1729120</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Wire-Side-Burner-Ignitor-1767019</t>
   </si>
   <si>
@@ -2593,9 +2413,6 @@
     <t>https://www.charbroil.com/Heat-Tent-1767054</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Front-Shelf-1884028</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/For-Air-Damper-For-Top-Lid-Kit-220511M522</t>
   </si>
   <si>
@@ -2734,9 +2551,6 @@
     <t>https://www.charbroil.com/Firebox-80009022</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Handle-80009086</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Electrode-Pole-Side-Burner-80016174</t>
   </si>
   <si>
@@ -2758,9 +2572,6 @@
     <t>https://www.charbroil.com/Grill-Base-CB1776010000</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Spring-For-Damper-CB884063</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Cooking-Grate-E2030026W1</t>
   </si>
   <si>
@@ -2833,9 +2644,6 @@
     <t>https://www.charbroil.com/Side-Shelf-Left-F039115</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Side-Shelf-Right-F039116</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Hinge-Kit-For-Lid-F039117</t>
   </si>
   <si>
@@ -3148,9 +2956,6 @@
     <t>https://www.charbroil.com/Firebox-G3610300W1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Tank-G3610600W1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Control-Panel-Main-G3610700W1</t>
   </si>
   <si>
@@ -3545,6 +3350,24 @@
   </si>
   <si>
     <t>https://www.charbroil.com/cooking-grate-g4690005w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/hinge-for-cleanout-door-1230160202104</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/side-shelf-right-f039116</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/heat-shield-for-tank-g3610600w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/right-door-no-handle-g4651100w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cooking-grate-g5340008w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/hardware-pack-g65103b001w1b</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3612,8 +3435,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3649,6 +3478,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3658,7 +3500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3671,7 +3513,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -9589,7 +9432,7 @@
   <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9607,7 +9450,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>702</v>
@@ -9615,15 +9458,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>3002</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>704</v>
@@ -9631,15 +9474,15 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3004</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>706</v>
@@ -9647,15 +9490,15 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3006</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>708</v>
@@ -9663,15 +9506,15 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>3008</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>710</v>
@@ -9679,15 +9522,15 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>3010</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>712</v>
@@ -9695,15 +9538,15 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>3012</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>714</v>
@@ -9711,15 +9554,15 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>3014</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>716</v>
@@ -9727,15 +9570,15 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>3016</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>718</v>
@@ -9743,15 +9586,15 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>3018</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>720</v>
@@ -9759,15 +9602,15 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>3020</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>722</v>
@@ -9775,15 +9618,15 @@
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>3022</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>724</v>
@@ -9791,15 +9634,15 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>3024</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>726</v>
@@ -9807,15 +9650,15 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>3026</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>728</v>
@@ -9823,15 +9666,15 @@
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>3028</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>730</v>
@@ -9839,15 +9682,15 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>3030</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>732</v>
@@ -9855,15 +9698,15 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>3032</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>734</v>
@@ -9871,15 +9714,15 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>3034</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>736</v>
@@ -9887,15 +9730,15 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>3036</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>738</v>
@@ -9903,15 +9746,15 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>3038</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>740</v>
@@ -9919,15 +9762,15 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>3040</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>742</v>
@@ -9935,15 +9778,15 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>3042</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>744</v>
@@ -9951,15 +9794,15 @@
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>3044</v>
-      </c>
-      <c r="B45" s="6" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>746</v>
@@ -9967,15 +9810,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>3046</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>748</v>
@@ -9983,15 +9826,15 @@
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>3048</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>750</v>
@@ -9999,4410 +9842,4410 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>3050</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>751</v>
+        <v>3049</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>3052</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>753</v>
+        <v>3051</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>3054</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>755</v>
+        <v>3053</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>3056</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>757</v>
+        <v>3055</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>3058</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>759</v>
+        <v>3057</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>3060</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>761</v>
+        <v>3059</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>3062</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>763</v>
+        <v>3061</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>3064</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>765</v>
+        <v>3063</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>3066</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>767</v>
+        <v>3065</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>3068</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>769</v>
+        <v>3067</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>3070</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>771</v>
+        <v>3069</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>3072</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>773</v>
+        <v>3071</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>3074</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>775</v>
+        <v>3073</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>3076</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>777</v>
+        <v>3075</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>3078</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>779</v>
+        <v>3077</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>3080</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>781</v>
+        <v>3079</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>3082</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>783</v>
+        <v>3081</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>3084</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>785</v>
+        <v>3083</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>3086</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>787</v>
+        <v>3085</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>3088</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>789</v>
+        <v>3087</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>3090</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>791</v>
+        <v>3089</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>3092</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>793</v>
+        <v>3091</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>3094</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>795</v>
+        <v>3093</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>3096</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>797</v>
+        <v>3095</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>3098</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>799</v>
+        <v>3097</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>3100</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>801</v>
+        <v>3099</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>3102</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>803</v>
+        <v>3101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>3104</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>805</v>
+        <v>3103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>3106</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>807</v>
+        <v>3105</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>3108</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>809</v>
+        <v>3107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>3110</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>811</v>
+        <v>3109</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>3112</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>813</v>
+        <v>3111</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>3114</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>815</v>
+        <v>3113</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>3116</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>817</v>
+        <v>3115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>3118</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>819</v>
+        <v>3117</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>3120</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>821</v>
+        <v>3119</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>3122</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>823</v>
+        <v>3121</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>3124</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>825</v>
+        <v>3123</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>3126</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>827</v>
+        <v>3125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>3128</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>829</v>
+        <v>3127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>3130</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>831</v>
+        <v>3129</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>3132</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>833</v>
+        <v>3131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>3134</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>835</v>
+        <v>3133</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>3136</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>837</v>
+        <v>3135</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>3138</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>839</v>
+        <v>3137</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>3140</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>841</v>
+        <v>3139</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>3142</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>843</v>
+        <v>3141</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>3144</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>845</v>
+        <v>3143</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>3146</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>847</v>
+        <v>3145</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>3148</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>849</v>
+        <v>3147</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>3150</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>851</v>
+        <v>3149</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>3152</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>853</v>
+        <v>3151</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>3154</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>855</v>
+        <v>3153</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>3156</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>857</v>
+        <v>3155</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>3158</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>859</v>
+        <v>3157</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>3160</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>861</v>
+        <v>3159</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>3162</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>863</v>
+        <v>3161</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>3164</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>865</v>
+        <v>3163</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>3166</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>867</v>
+        <v>3165</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>3168</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>869</v>
+        <v>3167</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>3170</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>871</v>
+        <v>3169</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>3172</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>873</v>
+        <v>3171</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>3174</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>875</v>
+        <v>3173</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>3176</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>877</v>
+        <v>3175</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>3178</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>879</v>
+        <v>3177</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>3180</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>881</v>
+        <v>3179</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>3182</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>883</v>
+        <v>3181</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>3184</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>885</v>
+        <v>3183</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>3186</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>887</v>
+        <v>3185</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>3188</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>889</v>
+        <v>3187</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>3190</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>891</v>
+        <v>3189</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>3192</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>893</v>
+        <v>3191</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>3194</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>895</v>
+        <v>3193</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>3196</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>897</v>
+        <v>3195</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>3198</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>899</v>
+        <v>3197</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>3200</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>901</v>
+        <v>3199</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>3202</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>903</v>
+        <v>3201</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>3204</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>905</v>
+        <v>3203</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>3206</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>907</v>
+        <v>3205</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>3208</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>909</v>
+        <v>3207</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>3210</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>911</v>
+        <v>3209</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>3212</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>913</v>
+        <v>3211</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>3214</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>915</v>
+        <v>3213</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>3216</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>917</v>
+        <v>3215</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>3218</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>919</v>
+        <v>3217</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>3220</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>921</v>
+        <v>3219</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>3222</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>923</v>
+        <v>3221</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>3224</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>925</v>
+        <v>3223</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>3226</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>927</v>
+        <v>3225</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>3228</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>929</v>
+        <v>3227</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>3230</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>931</v>
+        <v>3229</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>3232</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>933</v>
+        <v>3231</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>3234</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>935</v>
+        <v>3233</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>3236</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>937</v>
+        <v>3235</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>3238</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>939</v>
+        <v>3237</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>3240</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>941</v>
+        <v>3239</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>3242</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>943</v>
+        <v>3241</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>3244</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>945</v>
+        <v>3243</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>3246</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>947</v>
+        <v>3245</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>3248</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>949</v>
+        <v>3247</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>3250</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>951</v>
+        <v>3249</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>3252</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>953</v>
+        <v>3251</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>3254</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>955</v>
+        <v>3253</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>3256</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>957</v>
+        <v>3255</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>3258</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>959</v>
+        <v>3257</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>3260</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>961</v>
+        <v>3259</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>3262</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>963</v>
+        <v>3261</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>3264</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>965</v>
+        <v>3263</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>3266</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>967</v>
+        <v>3265</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>3268</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>969</v>
+        <v>3267</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>3270</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>971</v>
+        <v>3269</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>3272</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>973</v>
+        <v>3271</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>3274</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>975</v>
+        <v>3273</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>3276</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>977</v>
+        <v>3275</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>3278</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>979</v>
+        <v>3277</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>980</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>3280</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>981</v>
+        <v>3279</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>3282</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>983</v>
+        <v>3281</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>3284</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>985</v>
+        <v>3283</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>3286</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>987</v>
+        <v>3285</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>3288</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>989</v>
+        <v>3287</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>3290</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>991</v>
+        <v>3289</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>3292</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>993</v>
+        <v>3291</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>3294</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>995</v>
+        <v>3293</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>3296</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>997</v>
+        <v>3295</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>3298</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>999</v>
+        <v>3297</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>3300</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>1001</v>
+        <v>3299</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>3302</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>1003</v>
+        <v>3301</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>3304</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>1005</v>
+        <v>3303</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>3306</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>1007</v>
+        <v>3305</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>3308</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>1009</v>
+        <v>3307</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>3310</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>1011</v>
+        <v>3309</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>3312</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>1013</v>
+        <v>3311</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>3314</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>1015</v>
+        <v>3313</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>3316</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>1017</v>
+        <v>3315</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>3318</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>1019</v>
+        <v>3317</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>3320</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>1021</v>
+        <v>3319</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>3322</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>1023</v>
+        <v>3321</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>3324</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>1025</v>
+        <v>3323</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>3326</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>1027</v>
+        <v>3325</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>3328</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>1029</v>
+        <v>3327</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>3330</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>1031</v>
+        <v>3329</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>3332</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>1033</v>
+        <v>3331</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>3334</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>1035</v>
+        <v>3333</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>3336</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>1037</v>
+        <v>3335</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>3338</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>1039</v>
+        <v>3337</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>3340</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>1041</v>
+        <v>3339</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>3342</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>1043</v>
+        <v>3341</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>3344</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>1045</v>
+        <v>3343</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>3346</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>1047</v>
+        <v>3345</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>3348</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>1049</v>
+        <v>3347</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>3350</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>1051</v>
+        <v>3349</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>3352</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>1053</v>
+        <v>3351</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>3354</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>1055</v>
+        <v>3353</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>3356</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>1057</v>
+        <v>3355</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>3358</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>1059</v>
+        <v>3357</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>3360</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>1061</v>
+        <v>3359</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>3362</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>1063</v>
+        <v>3361</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>3364</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>1065</v>
+        <v>3363</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>3366</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>1067</v>
+        <v>3365</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>3368</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>1069</v>
+        <v>3367</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>3370</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>1071</v>
+        <v>3369</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>3372</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>1073</v>
+        <v>3371</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>3374</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>1075</v>
+        <v>3373</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>3376</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>1077</v>
+        <v>3375</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>3378</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>1079</v>
+        <v>3377</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>3380</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>1081</v>
+        <v>3379</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>3382</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>1083</v>
+        <v>3381</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>3384</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>1085</v>
+        <v>3383</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>3386</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>1087</v>
+        <v>3385</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>3388</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>1089</v>
+        <v>3387</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>3390</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>1091</v>
+        <v>3389</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>3392</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>1093</v>
+        <v>3391</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>3394</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>1095</v>
+        <v>3393</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>3396</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>1097</v>
+        <v>3395</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>3398</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>1099</v>
+        <v>3397</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>3400</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>1101</v>
+        <v>3399</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>3402</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>1103</v>
+        <v>3401</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>3404</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>1105</v>
+        <v>3403</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>3406</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>1107</v>
+        <v>3405</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>3408</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>1109</v>
+        <v>3407</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>3410</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>1111</v>
+        <v>3409</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>3412</v>
-      </c>
-      <c r="B413" s="6" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B413" s="7" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>3414</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>1115</v>
+        <v>3413</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>3416</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>1117</v>
+        <v>3415</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1118</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>3418</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>1119</v>
+        <v>3417</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>3420</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>1121</v>
+        <v>3419</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>3422</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>1123</v>
+        <v>3421</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>3424</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>1125</v>
+        <v>3423</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>3426</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>1127</v>
+        <v>3425</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>3428</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>1129</v>
+        <v>3427</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>3430</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>1131</v>
+        <v>3429</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>3432</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>1133</v>
+        <v>3431</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>3434</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>1135</v>
+        <v>3433</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>3436</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>1137</v>
+        <v>3435</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>3438</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>1139</v>
+        <v>3437</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>3440</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>1141</v>
+        <v>3439</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>3442</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>1143</v>
+        <v>3441</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>3444</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>1145</v>
+        <v>3443</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>3446</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>1147</v>
+        <v>3445</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>3448</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>1149</v>
+        <v>3447</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>1150</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>3450</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>1151</v>
+        <v>3449</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>1152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>3452</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>1153</v>
+        <v>3451</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1154</v>
+        <v>45</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>3454</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>1155</v>
+        <v>3453</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>1156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>3456</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>1157</v>
+        <v>3455</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1158</v>
+        <v>49</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>3458</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>1159</v>
+        <v>3457</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>3460</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>1161</v>
+        <v>3459</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>3462</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>1163</v>
+        <v>3461</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1164</v>
+        <v>55</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>3464</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>1165</v>
+        <v>3463</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>1166</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>3466</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>1167</v>
+        <v>3465</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>1168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>3468</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>1169</v>
+        <v>3467</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>1170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>3470</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>1171</v>
+        <v>3469</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>1172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>3472</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>2</v>
+        <v>3471</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>3474</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>4</v>
+        <v>3473</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>3476</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>6</v>
+        <v>3475</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>3478</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>8</v>
+        <v>3477</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>3480</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>10</v>
+        <v>3479</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>3482</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>12</v>
+        <v>3481</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>3484</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>14</v>
+        <v>3483</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>3486</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>16</v>
+        <v>3485</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>3488</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>18</v>
+        <v>3487</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>3490</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>20</v>
+        <v>3489</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>3492</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>22</v>
+        <v>3491</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>3494</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>24</v>
+        <v>3493</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>3496</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>26</v>
+        <v>3495</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>3498</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>28</v>
+        <v>3497</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>3500</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>30</v>
+        <v>3499</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>3502</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>32</v>
+        <v>3501</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>3504</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>34</v>
+        <v>3503</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>3506</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>36</v>
+        <v>3505</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>3508</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>38</v>
+        <v>3507</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>3510</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>40</v>
+        <v>3509</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>1173</v>
+        <v>103</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>3512</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>42</v>
+        <v>3511</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>3514</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>44</v>
+        <v>3513</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>3516</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>46</v>
+        <v>3515</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>3518</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>48</v>
+        <v>3517</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>3520</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>50</v>
+        <v>3519</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>3522</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>52</v>
+        <v>3521</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>3524</v>
-      </c>
-      <c r="B525" s="6" t="s">
-        <v>54</v>
+        <v>3523</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>3526</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>56</v>
+        <v>3525</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>1174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>3528</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>58</v>
+        <v>3527</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>3530</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>60</v>
+        <v>3529</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>3532</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>62</v>
+        <v>3531</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>3534</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>64</v>
+        <v>3533</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>3536</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>66</v>
+        <v>3535</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>3538</v>
-      </c>
-      <c r="B539" s="6" t="s">
-        <v>68</v>
+        <v>3537</v>
+      </c>
+      <c r="B539" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>3540</v>
-      </c>
-      <c r="B541" s="6" t="s">
-        <v>70</v>
+        <v>3539</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>3542</v>
-      </c>
-      <c r="B543" s="6" t="s">
-        <v>72</v>
+        <v>3541</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>3544</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>74</v>
+        <v>3543</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>3546</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>76</v>
+        <v>3545</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>3548</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>78</v>
+        <v>3547</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>3550</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>80</v>
+        <v>3549</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>3552</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>82</v>
+        <v>3551</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>3554</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>84</v>
+        <v>3553</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>3556</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>86</v>
+        <v>3555</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>3558</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>88</v>
+        <v>3557</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>3560</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>90</v>
+        <v>3559</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>3562</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>92</v>
+        <v>3561</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>3564</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>94</v>
+        <v>3563</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>3566</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>96</v>
+        <v>3565</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>3568</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>98</v>
+        <v>3567</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>3570</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>100</v>
+        <v>3569</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>3572</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>102</v>
+        <v>3571</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>3574</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>104</v>
+        <v>3573</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>3576</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>106</v>
+        <v>3575</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>3578</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>108</v>
+        <v>3577</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>3580</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>110</v>
+        <v>3579</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>3582</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>112</v>
+        <v>3581</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>3584</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>114</v>
+        <v>3583</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>3586</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>116</v>
+        <v>3585</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>3588</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>118</v>
+        <v>3587</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>3590</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>120</v>
+        <v>3589</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>3592</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>122</v>
+        <v>3591</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>3594</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>124</v>
+        <v>3593</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>3596</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>126</v>
+        <v>3595</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>127</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>3598</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>128</v>
+        <v>3597</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>3600</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>130</v>
+        <v>3599</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
